--- a/FlipkartProject/src/test/resources/TestData.xlsx
+++ b/FlipkartProject/src/test/resources/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="10">
   <si>
     <t>TC NAME</t>
   </si>

--- a/FlipkartProject/src/test/resources/TestData.xlsx
+++ b/FlipkartProject/src/test/resources/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="11">
   <si>
     <t>TC NAME</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>DARSHANAM WORLD 220v 500w Portable Electric Heater Mini...</t>
+  </si>
+  <si>
+    <t>WunderVoX 3D Flame Styling Wall Mounted Heater Winter W...</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
